--- a/data/trans_bre/IP1018-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP1018-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,48</t>
+          <t>0,0; 4,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 0,57</t>
+          <t>-0,65; 0,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,41</t>
+          <t>-0,87; 0,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 0,4</t>
+          <t>-0,45; 0,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 0,44</t>
+          <t>-0,42; 0,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">

--- a/data/trans_bre/IP1018-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP1018-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,17 +604,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-18,12%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-23,34%</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 0,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,9</t>
+          <t>-0,87; 0,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-18,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-23,34%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 0,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-24,28%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,12%</t>
         </is>
       </c>
     </row>
@@ -882,7 +882,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 0,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 0,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -912,97 +912,16 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-24,2%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>15,12%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,45; 0,38</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,42; 0,45</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
